--- a/dessert.xlsx
+++ b/dessert.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>search</t>
   </si>
@@ -46,6 +46,9 @@
     <t>1 Pound (Pack of 1)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/913dJIoY8MS._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>chocolate</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>24 Count (Pack of 1)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/91qi6PV+XBL._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>chocolate marshmallow</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>2 Pound</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/713ipK0eliL._SL1303_.jpg</t>
+  </si>
+  <si>
     <t>pudding powder</t>
   </si>
   <si>
@@ -79,16 +88,22 @@
     <t>1.5 Ounce (Pack of 6)</t>
   </si>
   <si>
-    <t>nuts/prunes</t>
-  </si>
-  <si>
-    <t>Mariani Mediterranean Dried Apricots -6oz (Pack of 4) –Delicately Sweet with No Sugar Added, Gluten Free, Vegan, Fat Free, Non-GMO, Resealable Bag -Healthy Snack for Kids &amp; Adults</t>
-  </si>
-  <si>
-    <t>4.6 out of 5 stars</t>
-  </si>
-  <si>
-    <t>4 Ounce (Pack of 4)</t>
+    <t>https://m.media-amazon.com/images/I/61R0pa-wIcL.jpg</t>
+  </si>
+  <si>
+    <t>specialty fat</t>
+  </si>
+  <si>
+    <t>Thatcher's Gourmet Specialties Popcorn, Fat-Free Caramel Corn, 8-Ounce Bags (Pack of 12)</t>
+  </si>
+  <si>
+    <t>3.5 out of 5 stars</t>
+  </si>
+  <si>
+    <t>2.63 Pound (Pack of 1)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41nvJVF6v6L.jpg</t>
   </si>
   <si>
     <t>sugar</t>
@@ -103,13 +118,7 @@
     <t>8.29 Ounce (Pack of 1)</t>
   </si>
   <si>
-    <t>chewing gum</t>
-  </si>
-  <si>
-    <t>Mueller Quench Double Raspberry - 10 stick Pack 24 count Trays</t>
-  </si>
-  <si>
-    <t>15 Count (Pack of 10)</t>
+    <t>https://m.media-amazon.com/images/I/81nCMeI15kS._SL1500_.jpg</t>
   </si>
   <si>
     <t>specialty chocolate</t>
@@ -124,6 +133,9 @@
     <t>1 Ounce (Pack of 12)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/91zyhlKd1zL._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>cooking chocolate</t>
   </si>
   <si>
@@ -133,13 +145,28 @@
     <t>5.5 Pound (Pack of 1)</t>
   </si>
   <si>
-    <t>sweet spreads</t>
+    <t>https://m.media-amazon.com/images/I/61mHlMpztUL._SL1080_.jpg</t>
   </si>
   <si>
     <t>artif. sweetener</t>
   </si>
   <si>
     <t>Lakanto Classic Monkfruit Sweetener - 1:1 White Sugar Substitute, Zero Calorie, Keto Diet Friendly, Zero Net Carbs, Zero Glycemic, Baking, Extract, Sugar Replacement (Classic White - 8.29 Oz)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91vAcb3Ya6L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>snack products</t>
+  </si>
+  <si>
+    <t>Highkey Keto Chocolate Chip Cookies - 3 Pack - Low Carb Snacks Keto Food Sugar Free High Protein Cookie with Zero Carbs for Healthy Snack Foods Diabetic Friendly Ketogenic Products</t>
+  </si>
+  <si>
+    <t>2.25 Ounce (Pack of 3)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81RSrBY-pxL._SL1500_.jpg</t>
   </si>
 </sst>
 </file>
@@ -147,10 +174,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -162,6 +189,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -176,6 +211,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -184,16 +234,54 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,32 +295,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,7 +312,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,59 +328,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,61 +342,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,121 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,21 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -566,17 +578,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -588,6 +589,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,157 +622,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,6 +792,9 @@
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1085,13 +1115,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="3" max="3" width="77.8214285714286" customWidth="1"/>
@@ -1117,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1136,248 +1166,230 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>39.95</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>10.99</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>9.97</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2">
-        <v>14.99</v>
+        <v>38.3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2">
         <v>5.97</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2">
-        <v>33.88</v>
+        <v>33.99</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="2:7">
+    <row r="9" ht="20" customHeight="1" spans="2:8">
       <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>41.45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E10" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2">
-        <v>33.99</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2">
-        <v>41.45</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
+      <c r="H10" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2">
-        <v>14.99</v>
+        <v>12.97</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2">
-        <v>5.95</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H11" r:id="rId1" display="https://m.media-amazon.com/images/I/81RSrBY-pxL._SL1500_.jpg"/>
+    <hyperlink ref="H2" r:id="rId2" display="https://m.media-amazon.com/images/I/913dJIoY8MS._SL1500_.jpg"/>
+    <hyperlink ref="H3" r:id="rId3" display="https://m.media-amazon.com/images/I/91qi6PV+XBL._SL1500_.jpg"/>
+    <hyperlink ref="H4" r:id="rId4" display="https://m.media-amazon.com/images/I/713ipK0eliL._SL1303_.jpg"/>
+    <hyperlink ref="H5" r:id="rId5" display="https://m.media-amazon.com/images/I/61R0pa-wIcL.jpg"/>
+    <hyperlink ref="H7" r:id="rId6" display="https://m.media-amazon.com/images/I/81nCMeI15kS._SL1500_.jpg"/>
+    <hyperlink ref="H8" r:id="rId7" display="https://m.media-amazon.com/images/I/91zyhlKd1zL._SL1500_.jpg"/>
+    <hyperlink ref="H9" r:id="rId8" display="https://m.media-amazon.com/images/I/61mHlMpztUL._SL1080_.jpg"/>
+    <hyperlink ref="H10" r:id="rId9" display="https://m.media-amazon.com/images/I/91vAcb3Ya6L._SL1500_.jpg"/>
+    <hyperlink ref="H6" r:id="rId10" display="https://m.media-amazon.com/images/I/41nvJVF6v6L.jpg"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
